--- a/CRM_Model.xlsx
+++ b/CRM_Model.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Technology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC37B63-96E9-41D6-BD46-77483FCD5243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04C14F0-0A55-41CC-97BA-4AE22177B91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2160" windowWidth="14295" windowHeight="13425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -836,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -987,11 +986,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B9479D-0B21-4003-80C8-F6E693A73016}">
   <dimension ref="A1:CP76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AH3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="AQ40" sqref="AQ40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4671,7 +4670,6 @@
       </c>
       <c r="AN25" s="13"/>
       <c r="AO25" s="13"/>
-      <c r="AP25" s="13"/>
       <c r="AQ25" s="13"/>
       <c r="AR25" s="13"/>
       <c r="AS25" s="13"/>
@@ -6958,7 +6956,7 @@
         <v>97</v>
       </c>
       <c r="AQ39" s="12">
-        <v>5.5E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="AR39" s="10"/>
       <c r="AS39" s="10"/>
@@ -7187,7 +7185,7 @@
       </c>
       <c r="AQ41" s="13">
         <f>NPV(AQ39,AJ27:CH27)</f>
-        <v>241894.92752926931</v>
+        <v>171285.08873874784</v>
       </c>
       <c r="AR41" s="10"/>
       <c r="AS41" s="10"/>
@@ -7417,7 +7415,7 @@
       </c>
       <c r="AQ43" s="14">
         <f>AQ41/AQ42</f>
-        <v>251.71168317301698</v>
+        <v>178.23630461888433</v>
       </c>
       <c r="AR43" s="10"/>
       <c r="AS43" s="10"/>
@@ -7645,7 +7643,7 @@
       <c r="AP45" s="10"/>
       <c r="AQ45" s="12">
         <f>AQ43/AQ44-1</f>
-        <v>-8.4751351999792779E-2</v>
+        <v>-0.35191511665011876</v>
       </c>
       <c r="AR45" s="10" t="str">
         <f>IF(AQ45&gt;0,"Upside","Downside")</f>
